--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -571,54 +571,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EqA6DwAAQBAJ</t>
+          <t>AGBCEAAAQBAJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juego de tronos y la filosofía</t>
+          <t>Juego de tronos. Realidades, ficciones, turismos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La lógica es más afilada que las espadas. Se acerca la casa del dragón. Todo lo que siempre has querido saber sobre Juego de tronos, el maravilloso universo creado por R.R. Martin. ¿Son el honor y la verdad necesarios para conseguir la felicidad, o bien nos impiden llegar a ella? ¿Pueden los huargos y otras criaturas fantásticas revelarnos las verdades sobre nuestra conciencia y nuestra realidad? ¿La profecía nos demuestra que somos meros peones del destino o bien que somos libres de vivir una vida auténtica? Si las series de televisión son ideales para el análisis filosófico, Juego de tronos lo es por partida doble. En Westeros y más allá del Mar Angosto, el mundo de George R.R. Martin está repleto de docenas de personajes complejos en conflicto con ellos mismos y en lucha con otros, dudando de sí mismos, abocados al riesgo moral, al engaño, a la incertidumbre, a la arrogancia y a la agitación social y política. Mientras los Siete Reinos están en guerra, más allá del Muro, los horrores del invierno se acercan. Muy lejos, una joven reina lucha con su destino mientras viaja para recuperar su hogar. Todo esto es sabido, pero esta guía perspicaz se basa en las obras de Maquiavelo, Hobbes, Descartes, San Agustín, Platón, Aristóteles y muchos otros grandes filósofos para analizar los personajes y argumentos clave, mientras explora temas como la guerra, el honor, el conocimiento, la moral, la teoría de género y mucho más de una manera tan amena como sorprendente. La crítica ha dicho... «Aplica las teorías de filósofos como Platón, Aristóteles, Kant o Hume para intentar dar explicación a las motivaciones y los conflictos de los personajes de "Juego de tronos". Y que permite a su vez que los lectores se acerquen de una forma curiosa y divertida a esa área del conocimiento humano que es la filosofía.» Fantasymundo «Puede ser la luz que necesitamos para ver y comprender mejor la historia.» The Perks of Being More than a Reader «Sumamente disfrutable.» El Economista «Analiza algunos de los temas claves de la historia de Martin a la luz de los grandes pensadores: honor guerra, conocimiento, moral, verdad...» El norte de Castilla «Me he dado cuenta de muchas cosas de la historia, del porqué de muchos actos de variospersonajes, el arco de unos, las razones de algunas muertes, etc. De pararte a reflexionar con cada línea.» ABIBLIOPHOBICX</t>
+          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales i de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Henry Jacoby, William Irwin</t>
+          <t>Pere Parramon, F. Xavier Medina</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N12OngEACAAJ</t>
+          <t>EqA6DwAAQBAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Game of Thrones</t>
+          <t>Juego de tronos y la filosofía</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inspired by the Emmy® Award–winning credits sequence that opens each episode of the hit HBO® series, Game of Thrones: A Pop-Up Guide to Westeros is guaranteed to thrill the show’s legions of fans. Featuring stunning pop-up recreations of several key locations from the series, including the formidable castle of Winterfell, the lavish capital city King’s Landing, and the Wall’s stark majesty, this book—designed by renowned paper engineer Matthew Reinhart—takes you into the world of the series like never before. Game of Thrones: A Pop-Up Guide to Westeros features a total of five stunning spreads, which fold out to create a remarkable pop-up map of Westeros that is perfect for displaying. The book also contains numerous mini-pops that bring to life iconic elements of the show, such as direwolves, White Walkers, giants, and dragons. All the pops are accompanied by insightful text that relays the rich history of the Seven Kingdoms and beyond, forming a dynamic reference guide to the world of Game of Thrones. Visually spectacular and enthrallingly interactive, Game of Thrones: A Pop-Up Guide to Westeros sets a new standard for pop-up books and perfectly captures the epic scope and imagination of the series.</t>
+          <t>La lógica es más afilada que las espadas. Se acerca la casa del dragón. Todo lo que siempre has querido saber sobre Juego de tronos, el maravilloso universo creado por R.R. Martin. ¿Son el honor y la verdad necesarios para conseguir la felicidad, o bien nos impiden llegar a ella? ¿Pueden los huargos y otras criaturas fantásticas revelarnos las verdades sobre nuestra conciencia y nuestra realidad? ¿La profecía nos demuestra que somos meros peones del destino o bien que somos libres de vivir una vida auténtica? Si las series de televisión son ideales para el análisis filosófico, Juego de tronos lo es por partida doble. En Westeros y más allá del Mar Angosto, el mundo de George R.R. Martin está repleto de docenas de personajes complejos en conflicto con ellos mismos y en lucha con otros, dudando de sí mismos, abocados al riesgo moral, al engaño, a la incertidumbre, a la arrogancia y a la agitación social y política. Mientras los Siete Reinos están en guerra, más allá del Muro, los horrores del invierno se acercan. Muy lejos, una joven reina lucha con su destino mientras viaja para recuperar su hogar. Todo esto es sabido, pero esta guía perspicaz se basa en las obras de Maquiavelo, Hobbes, Descartes, San Agustín, Platón, Aristóteles y muchos otros grandes filósofos para analizar los personajes y argumentos clave, mientras explora temas como la guerra, el honor, el conocimiento, la moral, la teoría de género y mucho más de una manera tan amena como sorprendente. La crítica ha dicho... «Aplica las teorías de filósofos como Platón, Aristóteles, Kant o Hume para intentar dar explicación a las motivaciones y los conflictos de los personajes de "Juego de tronos". Y que permite a su vez que los lectores se acerquen de una forma curiosa y divertida a esa área del conocimiento humano que es la filosofía.» Fantasymundo «Puede ser la luz que necesitamos para ver y comprender mejor la historia.» The Perks of Being More than a Reader «Sumamente disfrutable.» El Economista «Analiza algunos de los temas claves de la historia de Martin a la luz de los grandes pensadores: honor guerra, conocimiento, moral, verdad...» El norte de Castilla «Me he dado cuenta de muchas cosas de la historia, del porqué de muchos actos de variospersonajes, el arco de unos, las razones de algunas muertes, etc. De pararte a reflexionar con cada línea.» ABIBLIOPHOBICX</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2014-06-10</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Matthew Reinhart</t>
+          <t>Henry Jacoby, William Irwin</t>
         </is>
       </c>
     </row>
@@ -679,54 +679,54 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vfdIEAAAQBAJ</t>
+          <t>sbPj0AEACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juego de tronos. Realidades, ficciones, turismos</t>
+          <t>Juego de tronos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales y de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pere Parramon Rubio, Francesc Xavier Medina Luque</t>
+          <t>George R.R Martin</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zL5VdKN76gEC</t>
+          <t>vfdIEAAAQBAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Complete Sherlock Holmes</t>
+          <t>Juego de tronos. Realidades, ficciones, turismos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Presents the four novels and fifty-six short stories which comprise the entire Sherlock Holmes saga</t>
+          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales y de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arthur Conan Doyle, Sir Arthur Conan Doyle</t>
+          <t>Pere Parramon Rubio, Francesc Xavier Medina Luque</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -571,54 +571,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGBCEAAAQBAJ</t>
+          <t>EqA6DwAAQBAJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juego de tronos. Realidades, ficciones, turismos</t>
+          <t>Juego de tronos y la filosofía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales i de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
+          <t>La lógica es más afilada que las espadas. Se acerca la casa del dragón. Todo lo que siempre has querido saber sobre Juego de tronos, el maravilloso universo creado por R.R. Martin. ¿Son el honor y la verdad necesarios para conseguir la felicidad, o bien nos impiden llegar a ella? ¿Pueden los huargos y otras criaturas fantásticas revelarnos las verdades sobre nuestra conciencia y nuestra realidad? ¿La profecía nos demuestra que somos meros peones del destino o bien que somos libres de vivir una vida auténtica? Si las series de televisión son ideales para el análisis filosófico, Juego de tronos lo es por partida doble. En Westeros y más allá del Mar Angosto, el mundo de George R.R. Martin está repleto de docenas de personajes complejos en conflicto con ellos mismos y en lucha con otros, dudando de sí mismos, abocados al riesgo moral, al engaño, a la incertidumbre, a la arrogancia y a la agitación social y política. Mientras los Siete Reinos están en guerra, más allá del Muro, los horrores del invierno se acercan. Muy lejos, una joven reina lucha con su destino mientras viaja para recuperar su hogar. Todo esto es sabido, pero esta guía perspicaz se basa en las obras de Maquiavelo, Hobbes, Descartes, San Agustín, Platón, Aristóteles y muchos otros grandes filósofos para analizar los personajes y argumentos clave, mientras explora temas como la guerra, el honor, el conocimiento, la moral, la teoría de género y mucho más de una manera tan amena como sorprendente. La crítica ha dicho... «Aplica las teorías de filósofos como Platón, Aristóteles, Kant o Hume para intentar dar explicación a las motivaciones y los conflictos de los personajes de "Juego de tronos". Y que permite a su vez que los lectores se acerquen de una forma curiosa y divertida a esa área del conocimiento humano que es la filosofía.» Fantasymundo «Puede ser la luz que necesitamos para ver y comprender mejor la historia.» The Perks of Being More than a Reader «Sumamente disfrutable.» El Economista «Analiza algunos de los temas claves de la historia de Martin a la luz de los grandes pensadores: honor guerra, conocimiento, moral, verdad...» El norte de Castilla «Me he dado cuenta de muchas cosas de la historia, del porqué de muchos actos de variospersonajes, el arco de unos, las razones de algunas muertes, etc. De pararte a reflexionar con cada línea.» ABIBLIOPHOBICX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2018-01-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pere Parramon, F. Xavier Medina</t>
+          <t>Henry Jacoby, William Irwin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EqA6DwAAQBAJ</t>
+          <t>N12OngEACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juego de tronos y la filosofía</t>
+          <t>Game of Thrones</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>La lógica es más afilada que las espadas. Se acerca la casa del dragón. Todo lo que siempre has querido saber sobre Juego de tronos, el maravilloso universo creado por R.R. Martin. ¿Son el honor y la verdad necesarios para conseguir la felicidad, o bien nos impiden llegar a ella? ¿Pueden los huargos y otras criaturas fantásticas revelarnos las verdades sobre nuestra conciencia y nuestra realidad? ¿La profecía nos demuestra que somos meros peones del destino o bien que somos libres de vivir una vida auténtica? Si las series de televisión son ideales para el análisis filosófico, Juego de tronos lo es por partida doble. En Westeros y más allá del Mar Angosto, el mundo de George R.R. Martin está repleto de docenas de personajes complejos en conflicto con ellos mismos y en lucha con otros, dudando de sí mismos, abocados al riesgo moral, al engaño, a la incertidumbre, a la arrogancia y a la agitación social y política. Mientras los Siete Reinos están en guerra, más allá del Muro, los horrores del invierno se acercan. Muy lejos, una joven reina lucha con su destino mientras viaja para recuperar su hogar. Todo esto es sabido, pero esta guía perspicaz se basa en las obras de Maquiavelo, Hobbes, Descartes, San Agustín, Platón, Aristóteles y muchos otros grandes filósofos para analizar los personajes y argumentos clave, mientras explora temas como la guerra, el honor, el conocimiento, la moral, la teoría de género y mucho más de una manera tan amena como sorprendente. La crítica ha dicho... «Aplica las teorías de filósofos como Platón, Aristóteles, Kant o Hume para intentar dar explicación a las motivaciones y los conflictos de los personajes de "Juego de tronos". Y que permite a su vez que los lectores se acerquen de una forma curiosa y divertida a esa área del conocimiento humano que es la filosofía.» Fantasymundo «Puede ser la luz que necesitamos para ver y comprender mejor la historia.» The Perks of Being More than a Reader «Sumamente disfrutable.» El Economista «Analiza algunos de los temas claves de la historia de Martin a la luz de los grandes pensadores: honor guerra, conocimiento, moral, verdad...» El norte de Castilla «Me he dado cuenta de muchas cosas de la historia, del porqué de muchos actos de variospersonajes, el arco de unos, las razones de algunas muertes, etc. De pararte a reflexionar con cada línea.» ABIBLIOPHOBICX</t>
+          <t>Inspired by the Emmy® Award–winning credits sequence that opens each episode of the hit HBO® series, Game of Thrones: A Pop-Up Guide to Westeros is guaranteed to thrill the show’s legions of fans. Featuring stunning pop-up recreations of several key locations from the series, including the formidable castle of Winterfell, the lavish capital city King’s Landing, and the Wall’s stark majesty, this book—designed by renowned paper engineer Matthew Reinhart—takes you into the world of the series like never before. Game of Thrones: A Pop-Up Guide to Westeros features a total of five stunning spreads, which fold out to create a remarkable pop-up map of Westeros that is perfect for displaying. The book also contains numerous mini-pops that bring to life iconic elements of the show, such as direwolves, White Walkers, giants, and dragons. All the pops are accompanied by insightful text that relays the rich history of the Seven Kingdoms and beyond, forming a dynamic reference guide to the world of Game of Thrones. Visually spectacular and enthrallingly interactive, Game of Thrones: A Pop-Up Guide to Westeros sets a new standard for pop-up books and perfectly captures the epic scope and imagination of the series.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2014-06-10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Henry Jacoby, William Irwin</t>
+          <t>Matthew Reinhart</t>
         </is>
       </c>
     </row>
@@ -679,54 +679,54 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sbPj0AEACAAJ</t>
+          <t>vfdIEAAAQBAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juego de tronos</t>
+          <t>Juego de tronos. Realidades, ficciones, turismos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales y de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>George R.R Martin</t>
+          <t>Pere Parramon Rubio, Francesc Xavier Medina Luque</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vfdIEAAAQBAJ</t>
+          <t>zL5VdKN76gEC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juego de tronos. Realidades, ficciones, turismos</t>
+          <t>The Complete Sherlock Holmes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales y de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
+          <t>Presents the four novels and fifty-six short stories which comprise the entire Sherlock Holmes saga</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pere Parramon Rubio, Francesc Xavier Medina Luque</t>
+          <t>Arthur Conan Doyle, Sir Arthur Conan Doyle</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -652,27 +652,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eiewDwAAQBAJ</t>
+          <t>sbPj0AEACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Devoted</t>
+          <t>Juego de tronos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>One boy with the power to save the world. One man with the will to destroy it. The chilling, unputdownable new standalone thriller from Dean Koontz, the master of suspense. ‘The master of our darkest dreams’ The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dean Koontz</t>
+          <t>George R.R Martin</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,201 +463,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-c02AwAAQBAJ</t>
+          <t>4Fsg0AEACAAJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juego de tronos (Canción de hielo y fuego 1)</t>
+          <t>El señor de los anillos v1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>En el legendario mundo de los Siete Reinos, lord Stark y su familia se encuentran en el centro de un conflicto que desatará todas las pasiones y la más mortal de las batallas... Juego de tronos es el primer volumen de Canción de hielo y fuego, la monumental saga de fantasía épica del escritor George R. R. Martin que ha vendido más de 20 millones de ejemplares en todo el mundo. De la saga que inspiró la filmación de la aclamada serie televisiva de HBO: Game of Thrones. En el legendario mundo de los Siete Reinos, donde el verano puede durar décadas y el invierno toda una vida, y donde rastros de una magia inmemorial surgen en los rincones más sombríos, la tierra del norte, Invernalia, está resguardada por un colosal muro de hielo que detiene a fuerzas oscuras y sobrenaturales. En este majestuoso escenario, lord Stark y su familia se encuentran en el centro de un conflicto que desatará todas las pasiones: la traición y la lealtad, la compasión y la sed de venganza, el amor y el poder, la lujuria y el incesto, todo ello para ganar la más mortal de las batallas: el trono de hierro, una poderosa trampa que atrapará a los personajes... y al lector.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2014-04-04</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>George R.R. Martin</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0ifeDQAAQBAJ</t>
+          <t>6sRGzwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Game of Thrones: In Memoriam</t>
+          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A tribute to some of the most memorable characters that have died during the course of the first four seasons of Game of Thrones. The book includes quotes, brief character profiles, and is fully illustrated with series photography throughout.</t>
+          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Running Press</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5NomkK4EV68C</t>
+          <t>7xl3PgAACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Game of Thrones</t>
+          <t>El Señor de los Anillos III. El Retorno del Rey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOW THE ACCLAIMED HBO SERIES GAME OF THRONES—THE MASTERPIECE THAT BECAME A CULTURAL PHENOMENON Here is the first book in the landmark series that has redefined imaginative fiction and become a modern masterpiece. A GAME OF THRONES In a land where summers can last decades and winters a lifetime, trouble is brewing. The cold is returning, and in the frozen wastes to the North of Winterfell, sinister and supernatural forces are massing beyond the kingdom’s protective Wall. At the center of the conflict lie the Starks of Winterfell, a family as harsh and unyielding as the land they were born to. Sweeping from a land of brutal cold to a distant summertime kingdom of epicurean plenty, here is a tale of lords and ladies, soldiers and sorcerers, assassins and bastards, who come together in a time of grim omens. Amid plots and counterplots, tragedy and betrayal, victory and terror, the fate of the Starks, their allies, and their enemies hangs perilously in the balance, as each endeavors to win that deadliest of conflicts: the game of thrones. A GAME OF THRONES • A CLASH OF KINGS • A STORM OF SWORDS • A FEAST FOR CROWS • A DANCE WITH DRAGONS</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2003-01-01</t>
+          <t>2011-04-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>George R. R. Martin</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8IsOP1sUmZwC</t>
+          <t>Av6RMQEACAAJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dying of the Light</t>
+          <t>La comunidad del anillo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>In this unforgettable space opera, #1 New York Times bestselling author George R. R. Martin presents a chilling vision of eternal night—a volatile world where cultures clash, codes of honor do not exist, and the hunter and the hunted are often interchangeable. A whisperjewel has summoned Dirk t’Larien to Worlorn, and a love he thinks he lost. But Worlorn isn’t the world Dirk imagined, and Gwen Delvano is no longer the woman he once knew. She is bound to another man, and to a dying planet that is trapped in twilight. Gwen needs Dirk’s protection, and he will do anything to keep her safe, even if it means challenging the barbaric man who has claimed her. But an impenetrable veil of secrecy surrounds them all, and it’s becoming impossible for Dirk to distinguish between his allies and his enemies. In this dangerous triangle, one is hurtling toward escape, another toward revenge, and the last toward a brutal, untimely demise. Praise for Dying of the Light “Dying of the Light blew the doors off of my idea of what fiction could be and could do, what a work of unbridled imagination could make a reader feel and believe.”—Michael Chabon “Slick science fiction . . . the Wild West in outer space.”—Los Angeles Times “Something special which will keep Worlorn and its people in the reader’s mind long after the final page is read.”—Galileo magazine “The galactic background is excellent. . . . Martin knows how to hold the reader.”—Asimov’s “George R. R. Martin has the voice of a poet and a mind like a steel trap.”—Algis Budrys</t>
+          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2004-09-28</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>George R. R. Martin</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EqA6DwAAQBAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juego de tronos y la filosofía</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La lógica es más afilada que las espadas. Se acerca la casa del dragón. Todo lo que siempre has querido saber sobre Juego de tronos, el maravilloso universo creado por R.R. Martin. ¿Son el honor y la verdad necesarios para conseguir la felicidad, o bien nos impiden llegar a ella? ¿Pueden los huargos y otras criaturas fantásticas revelarnos las verdades sobre nuestra conciencia y nuestra realidad? ¿La profecía nos demuestra que somos meros peones del destino o bien que somos libres de vivir una vida auténtica? Si las series de televisión son ideales para el análisis filosófico, Juego de tronos lo es por partida doble. En Westeros y más allá del Mar Angosto, el mundo de George R.R. Martin está repleto de docenas de personajes complejos en conflicto con ellos mismos y en lucha con otros, dudando de sí mismos, abocados al riesgo moral, al engaño, a la incertidumbre, a la arrogancia y a la agitación social y política. Mientras los Siete Reinos están en guerra, más allá del Muro, los horrores del invierno se acercan. Muy lejos, una joven reina lucha con su destino mientras viaja para recuperar su hogar. Todo esto es sabido, pero esta guía perspicaz se basa en las obras de Maquiavelo, Hobbes, Descartes, San Agustín, Platón, Aristóteles y muchos otros grandes filósofos para analizar los personajes y argumentos clave, mientras explora temas como la guerra, el honor, el conocimiento, la moral, la teoría de género y mucho más de una manera tan amena como sorprendente. La crítica ha dicho... «Aplica las teorías de filósofos como Platón, Aristóteles, Kant o Hume para intentar dar explicación a las motivaciones y los conflictos de los personajes de "Juego de tronos". Y que permite a su vez que los lectores se acerquen de una forma curiosa y divertida a esa área del conocimiento humano que es la filosofía.» Fantasymundo «Puede ser la luz que necesitamos para ver y comprender mejor la historia.» The Perks of Being More than a Reader «Sumamente disfrutable.» El Economista «Analiza algunos de los temas claves de la historia de Martin a la luz de los grandes pensadores: honor guerra, conocimiento, moral, verdad...» El norte de Castilla «Me he dado cuenta de muchas cosas de la historia, del porqué de muchos actos de variospersonajes, el arco de unos, las razones de algunas muertes, etc. De pararte a reflexionar con cada línea.» ABIBLIOPHOBICX</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018-01-18</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Henry Jacoby, William Irwin</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N12OngEACAAJ</t>
+          <t>Gdvd0AEACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Game of Thrones</t>
+          <t>El señor de los anillos: La comunidad del anillo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inspired by the Emmy® Award–winning credits sequence that opens each episode of the hit HBO® series, Game of Thrones: A Pop-Up Guide to Westeros is guaranteed to thrill the show’s legions of fans. Featuring stunning pop-up recreations of several key locations from the series, including the formidable castle of Winterfell, the lavish capital city King’s Landing, and the Wall’s stark majesty, this book—designed by renowned paper engineer Matthew Reinhart—takes you into the world of the series like never before. Game of Thrones: A Pop-Up Guide to Westeros features a total of five stunning spreads, which fold out to create a remarkable pop-up map of Westeros that is perfect for displaying. The book also contains numerous mini-pops that bring to life iconic elements of the show, such as direwolves, White Walkers, giants, and dragons. All the pops are accompanied by insightful text that relays the rich history of the Seven Kingdoms and beyond, forming a dynamic reference guide to the world of Game of Thrones. Visually spectacular and enthrallingly interactive, Game of Thrones: A Pop-Up Guide to Westeros sets a new standard for pop-up books and perfectly captures the epic scope and imagination of the series.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2014-06-10</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Matthew Reinhart</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XF4yfbQJWw4C</t>
+          <t>HZXrAQAACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Game of Thrones and Philosophy</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>An in-depth look at the philosophical issues behind HBO's Game of Thrones television series and the books that inspired it George R.R. Martin's New York Times bestselling epic fantasy book series, A Song of Ice and Fire, and the HBO television show adapted from it, have earned critical acclaim and inspired fanatic devotion. This book delves into the many philosophical questions that arise in this complex, character-driven series, including: Is it right for a "good" king to usurp the throne of a "bad" one and murder his family? How far should you go to protect your family and its secrets? In a fantasy universe with medieval mores and ethics, can female characters reflect modern feminist ideals? Timed for the premiere of the second season of the HBO Game of Thrones series Gives new perspectives on the characters, storylines, and themes of Game of Thrones Draws on great philosophers from ancient Greece to modern America to explore intriguing topics such as the strange creatures of Westeros, the incestuous relationship of Jaime and Cersei Lannister, and what the kings of Westeros can show us about virtue and honor (or the lack thereof) as they play their game of thrones Essential reading for fans, Game of Thrones and Philosophy will enrich your experience of your favorite medieval fantasy series.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2012-03-13</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Henry Jacoby</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sbPj0AEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juego de tronos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,66 +667,598 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>George R.R Martin</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vfdIEAAAQBAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juego de tronos. Realidades, ficciones, turismos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La influencia de los rodajes cinematográficos o televisivos en el interés turístico de determinados destinos ha ido tomando fuerza en los últimos años. En este libro analizamos el caso del rodaje de una superproducción internacional como es Juego de tronos en localizaciones de Irlanda del Norte o Girona, entre otras, examinando su repercusión en clave turística y los modos en que se entrelazan los atractivos preexistentes con la ficción creada por la productora HBO a partir de los libros de George R. R. Martin. Desde la especificidad del uso turístico de una de las series más exitosas de los últimos años podemos extrapolar diferentes reflexiones relacionadas con fenómenos como la construcción de cánones culturales y de imaginarios, o la noción de autoría en una contemporaneidad en la cual las expectativas del público ganan terreno.</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pere Parramon Rubio, Francesc Xavier Medina Luque</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zL5VdKN76gEC</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Complete Sherlock Holmes</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Presents the four novels and fifty-six short stories which comprise the entire Sherlock Holmes saga</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arthur Conan Doyle, Sir Arthur Conan Doyle</t>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QtSEvgEACAAJ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>El señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RYr8sgEACAAJ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>T8P3AAAACAAJ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tolkien, el Señor de Los Anillos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2004-09-01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>U7sA0AEACAAJ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>El Señor de los Anillos III</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2010-04-28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WBOxAQAACAAJ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>El Senor de Los Anillos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WmdWtQAACAAJ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>El Señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ZVwX0QEACAAJ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>El Señor de los Anillos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ayczzwEACAAJ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>El señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>John Ronald Ruelen Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>cURzPgAACAAJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>El señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>e1ZJzwEACAAJ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>eqPUjwEACAAJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>El Senor de Los Anillos</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Titulo: El Señor de los anillos: La comunidad del anillo.Autor: J. R. R. Tolkien.Fecha de publicación: 1954.En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2016-05-31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ld5GswEACAAJ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nU14zgEACAAJ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>El señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>neSkMQEACAAJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>El Señor de Los Anillos 1.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2012-11-13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>o5WfPwAACAAJ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>El Señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>oD-EuQAACAAJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>El Señor de Los Anillos, Ii</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>q0JyPwAACAAJ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>El Señor de Los Anillos, I</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sA3CAAAACAAJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>El Senor De Los Anillos Iii</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2004-06-30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>x5KGzgEACAAJ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>El Señor de los Anillos III</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>z5jCtAEACAAJ</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>El señor de los anillos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -652,88 +652,88 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,20 +775,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -798,64 +802,64 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>J. R. R. Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WBOxAQAACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Senor de Los Anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>2010-04-28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -914,34 +918,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -956,61 +960,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eqPUjwEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El Senor de Los Anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Titulo: El Señor de los anillos: La comunidad del anillo.Autor: J. R. R. Tolkien.Fecha de publicación: 1954.En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2016-05-31</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4Fsg0AEACAAJ</t>
+          <t>-Q7y6beGZHAC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El señor de los anillos v1</t>
+          <t>Estudio del sector editorial de los juegos de rol en España :historia, tipología, perfil de lector, del autor, del traductor y del editor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,93 +478,93 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2009-06-18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Héctor Sevillano Pareja</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6sRGzwEACAAJ</t>
+          <t>5XWXuQAACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
+          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J. R. R. Tolkien, Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7xl3PgAACAAJ</t>
+          <t>6463zwEACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III. El Retorno del Rey</t>
+          <t>The return of the king</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2011-04-05</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Av6RMQEACAAJ</t>
+          <t>70jL1nnXg3wC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La comunidad del anillo</t>
+          <t>Daniel in the Lions' Den</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Ronne Randall</t>
         </is>
       </c>
     </row>
@@ -598,39 +598,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gdvd0AEACAAJ</t>
+          <t>FlGcUAnpMmIC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El señor de los anillos: La comunidad del anillo</t>
+          <t>Hobbit's Travels</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2002-01-04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Sam Gamgee</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HZXrAQAACAAJ</t>
+          <t>Gdvd0AEACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El señor de los anillos: La comunidad del anillo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -645,122 +645,122 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,12 +787,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,20 +802,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,39 +829,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>J. R. R. Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
@@ -918,61 +918,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>ZcAlEAAAQBAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>The Lord of the Rings Illustrated</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -987,61 +987,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>bjUh2d_6atUC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>Más allá de los niños índigo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Según la profecía, el quinto sol o quinto mundo del calendario maya entra en ascensión el 21 de diciembre de 2012. Esta fecha representa una “puerta de acceso” en el desarrollo planetario que expondrá a la humanidad a nuevas formas de vivir y nuevos mundos de oportunidades. Las predicciones de la antigüedad indican que nuestra transición satisfactoria a través de esta puerta de acceso depende de la “quinta raza raíz” (la nueva expresión de la reserva genética humana) destinada a ayudarnos a sobrellevar los enormes y emocionantes cambios que nos aguardan. En Más allá de los niños índigo, P. M. H. Atwater arroja luz sobre las características de los extraordinarios “nuevos niños” de la quinta raza raíz, esos chicos brillantes e irreverentes que han nacido desde 1982. La autora explora la relación de los nuevos niños con las profecías del calendario maya y otras tradiciones, proveyendo amplia información de antecedentes acerca de las siete razas raíz (la sexta y séptima de las cuales aún no han surgido) y la gran transformación de la conciencia que ya está teniendo lugar. La autora revela la conexión existente entre las siete razas raíz y los siete chakras, y la manera en que la humanidad verá abrirse el quinto chakra (el de la voluntad) a medida que los nuevos niños lleguen a la madurez. Analiza además el fenómeno de la inteligencia creciente y el potencial sin desarrollar y ofrece orientaciones y herramientas concretas para los que procuran comprender y ayudar a los nuevos niños a realizar todo su potencial. Más allá de los niños índigo es el primer estudio importante de los niños de hoy y del lugar que ocupan en nuestro mundo rápidamente cambiante; combina la investigación objetiva con la revelación mística y las profecías.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2008-01-07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>P. M. H. Atwater</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nU14zgEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1107,71 +1107,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>oD-EuQAACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, Ii</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1188,54 +1188,54 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x5KGzgEACAAJ</t>
+          <t>yK0Qi0R9U-IC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Impacto económico de las industrias culturales en Colombia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Economía y cultura - El sector cultural en tres escenarios - Sector editorial - Sector fonográfico - Cine - Sector televisión - La radio - Publicaciones periódicas - Recomendaciones de política sobre las industrias culturales en Colombia.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Colombia. Ministerio de Cultura</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-Q7y6beGZHAC</t>
+          <t>4Fsg0AEACAAJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estudio del sector editorial de los juegos de rol en España :historia, tipología, perfil de lector, del autor, del traductor y del editor</t>
+          <t>El señor de los anillos v1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,61 +478,61 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2009-06-18</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Héctor Sevillano Pareja</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5XWXuQAACAAJ</t>
+          <t>6sRGzwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
+          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Alan Lee</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6463zwEACAAJ</t>
+          <t>Av6RMQEACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The return of the king</t>
+          <t>La comunidad del anillo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,169 +544,169 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>70jL1nnXg3wC</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniel in the Lions' Den</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ronne Randall</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>Gdvd0AEACAAJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>El señor de los anillos: La comunidad del anillo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FlGcUAnpMmIC</t>
+          <t>HZXrAQAACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hobbit's Travels</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2002-01-04</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sam Gamgee</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gdvd0AEACAAJ</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El señor de los anillos: La comunidad del anillo</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,51 +721,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,24 +775,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,47 +798,51 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2010-04-28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -891,157 +891,157 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZcAlEAAAQBAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Illustrated</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bjUh2d_6atUC</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Más allá de los niños índigo</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Según la profecía, el quinto sol o quinto mundo del calendario maya entra en ascensión el 21 de diciembre de 2012. Esta fecha representa una “puerta de acceso” en el desarrollo planetario que expondrá a la humanidad a nuevas formas de vivir y nuevos mundos de oportunidades. Las predicciones de la antigüedad indican que nuestra transición satisfactoria a través de esta puerta de acceso depende de la “quinta raza raíz” (la nueva expresión de la reserva genética humana) destinada a ayudarnos a sobrellevar los enormes y emocionantes cambios que nos aguardan. En Más allá de los niños índigo, P. M. H. Atwater arroja luz sobre las características de los extraordinarios “nuevos niños” de la quinta raza raíz, esos chicos brillantes e irreverentes que han nacido desde 1982. La autora explora la relación de los nuevos niños con las profecías del calendario maya y otras tradiciones, proveyendo amplia información de antecedentes acerca de las siete razas raíz (la sexta y séptima de las cuales aún no han surgido) y la gran transformación de la conciencia que ya está teniendo lugar. La autora revela la conexión existente entre las siete razas raíz y los siete chakras, y la manera en que la humanidad verá abrirse el quinto chakra (el de la voluntad) a medida que los nuevos niños lleguen a la madurez. Analiza además el fenómeno de la inteligencia creciente y el potencial sin desarrollar y ofrece orientaciones y herramientas concretas para los que procuran comprender y ayudar a los nuevos niños a realizar todo su potencial. Más allá de los niños índigo es el primer estudio importante de los niños de hoy y del lugar que ocupan en nuestro mundo rápidamente cambiante; combina la investigación objetiva con la revelación mística y las profecías.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2008-01-07</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P. M. H. Atwater</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>nU14zgEACAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1107,71 +1107,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>oD-EuQAACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>El Señor de Los Anillos, Ii</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1188,54 +1188,54 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>sA3CAAAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Senor De Los Anillos Iii</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004-06-30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>yK0Qi0R9U-IC</t>
+          <t>x5KGzgEACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Impacto económico de las industrias culturales en Colombia</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Economía y cultura - El sector cultural en tres escenarios - Sector editorial - Sector fonográfico - Cine - Sector televisión - La radio - Publicaciones periódicas - Recomendaciones de política sobre las industrias culturales en Colombia.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Colombia. Ministerio de Cultura</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,147 +463,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4Fsg0AEACAAJ</t>
+          <t>5XWXuQAACAAJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El señor de los anillos v1</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien, Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6sRGzwEACAAJ</t>
+          <t>6463zwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
+          <t>The return of the king</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Av6RMQEACAAJ</t>
+          <t>6sRGzwEACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La comunidad del anillo</t>
+          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
+          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>Av6RMQEACAAJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>La comunidad del anillo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gdvd0AEACAAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El señor de los anillos: La comunidad del anillo</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HZXrAQAACAAJ</t>
+          <t>Gdvd0AEACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El señor de los anillos: La comunidad del anillo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -618,95 +618,95 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>HZXrAQAACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,51 +721,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,20 +775,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -798,51 +802,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -864,66 +864,66 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -933,78 +933,78 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ZcAlEAAAQBAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Illustrated</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1014,34 +1014,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,22 +1053,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nU14zgEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,22 +1080,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1107,71 +1107,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>oD-EuQAACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, Ii</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1188,39 +1188,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x5KGzgEACAAJ</t>
+          <t>sA3CAAAACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>El Senor De Los Anillos Iii</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2004-06-30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,76 +463,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5XWXuQAACAAJ</t>
+          <t>4Fsg0AEACAAJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El señor de los anillos v1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Alan Lee</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6463zwEACAAJ</t>
+          <t>6sRGzwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The return of the king</t>
+          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6sRGzwEACAAJ</t>
+          <t>7xl3PgAACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
+          <t>El Señor de los Anillos III. El Retorno del Rey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2011-04-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,115 +652,115 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,12 +787,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,24 +802,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,64 +825,64 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2004-09-01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>WBOxAQAACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>El Senor de Los Anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -945,103 +941,103 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZcAlEAAAQBAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Illustrated</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1053,22 +1049,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>nU14zgEACAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1080,22 +1076,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1107,71 +1103,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>oD-EuQAACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>El Señor de Los Anillos, Ii</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1188,39 +1184,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>sA3CAAAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Senor De Los Anillos Iii</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004-06-30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>x5KGzgEACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1230,7 +1226,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -517,81 +517,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6sRGzwEACAAJ</t>
+          <t>Av6RMQEACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
+          <t>La comunidad del anillo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
+          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Av6RMQEACAAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La comunidad del anillo</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>FlGcUAnpMmIC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>Hobbit's Travels</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2002-01-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Sam Gamgee</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -652,88 +652,88 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,24 +775,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,74 +798,74 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>2004-09-01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>WBOxAQAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>El Senor de Los Anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WBOxAQAACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Senor de Los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -879,20 +875,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -956,61 +956,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>eqPUjwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El Senor de Los Anillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Titulo: El Señor de los anillos: La comunidad del anillo.Autor: J. R. R. Tolkien.Fecha de publicación: 1954.En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2016-05-31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,135 +463,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4Fsg0AEACAAJ</t>
+          <t>5XWXuQAACAAJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El señor de los anillos v1</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien, Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6sRGzwEACAAJ</t>
+          <t>6463zwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos. La Comunidad Del Anillo (TV Tie-In) (the Lord of the Rings. the Fellowship of the Ring [Tv Tie-In]) (Spanish Edition)</t>
+          <t>The return of the king</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Un héroe inesperado. Una misión peligrosa. La mayor aventura que jamás te hayan contado. La primera entrega de la trilogía de J. R. R. Tolkien El Señor de los Anillos En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en la Grieta del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» --George Steiner, Le Monde, 1973 ENGLISH DESCRIPTION Inspired by The Hobbit and begun in 1937, The Lord of the Rings is a trilogy that J.R.R. Tolkien created to provide "the necessary background of history for Elvish tongues". From these academic aspirations was born one of the most popular and imaginative works in English literature. The Fellowship of the Ring, the first volume in the trilogy, tells of the fateful power of the One Ring. It begins a magnificent tale of adventure that will plunge the members of the Fellowship of the Ring into a perilous quest and set the stage for the ultimate clash between the powers of good and evil. In this splendid, unabridged audio production of Tolkien's great work, all the inhabitants of a magical universe - hobbits, elves, and wizards - step colorfully into life. Rob Inglis' narration has been praised as a masterpiece of audio.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7xl3PgAACAAJ</t>
+          <t>Av6RMQEACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III. El Retorno del Rey</t>
+          <t>La comunidad del anillo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2011-04-05</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Av6RMQEACAAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La comunidad del anillo</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>FlGcUAnpMmIC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>Hobbit's Travels</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2002-01-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Sam Gamgee</t>
         </is>
       </c>
     </row>
@@ -652,61 +652,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,51 +721,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,20 +775,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -798,51 +802,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WBOxAQAACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Senor de Los Anillos</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,47 +852,51 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>2004-09-01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>J. R. R. Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -902,7 +906,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -914,12 +918,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,115 +933,115 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ZcAlEAAAQBAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Illustrated</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eqPUjwEACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El Senor de Los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Titulo: El Señor de los anillos: La comunidad del anillo.Autor: J. R. R. Tolkien.Fecha de publicación: 1954.En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2016-05-31</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1049,22 +1053,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nU14zgEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1076,22 +1080,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1103,71 +1107,71 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>oD-EuQAACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, Ii</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compañía se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continúan solos su viaje a lo largo del río Anduin, perseguidos por la sombra misteriosa de un ser extraño que también ambiciona la posesión del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Señor del Mal.</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1184,39 +1188,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x5KGzgEACAAJ</t>
+          <t>sA3CAAAACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>El Senor De Los Anillos Iii</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1226,7 +1230,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2004-06-30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -517,27 +517,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Av6RMQEACAAJ</t>
+          <t>7abaCsl-b5MC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La comunidad del anillo</t>
+          <t>Tolkien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En la adormecida e idilica Comarca, un joven hobbit recibe un encargo : custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal. (Source : 4e de couverture).</t>
+          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien, Lin Carter</t>
         </is>
       </c>
     </row>
@@ -571,27 +571,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FlGcUAnpMmIC</t>
+          <t>GAcCAAAACAAJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hobbit's Travels</t>
+          <t>Los mundos mágicos de El señor de los anillos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2002-01-04</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sam Gamgee</t>
+          <t>David Colbert</t>
         </is>
       </c>
     </row>
@@ -625,162 +625,162 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HZXrAQAACAAJ</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>PC8AAAAACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Jude Fisher</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>UfYGAAAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -906,24 +906,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Kurt D. Bruner, Jim Ware</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZcAlEAAAQBAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Illustrated</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1080,49 +1080,49 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>gHzeCYjKGBsC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>El señor de los anillos y la filosofía</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2010-05-20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Gregory Bassham, Eric Bronson</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,44 +1161,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1215,27 +1215,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -864,39 +864,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>UfYGAAAACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Kurt D. Bruner, Jim Ware</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UfYGAAAACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -906,24 +906,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kurt D. Bruner, Jim Ware</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>ZcAlEAAAQBAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>The Lord of the Rings Illustrated</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -864,39 +864,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UfYGAAAACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kurt D. Bruner, Jim Ware</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>UfYGAAAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -906,24 +906,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Kurt D. Bruner, Jim Ware</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -945,22 +945,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZcAlEAAAQBAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Illustrated</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El señor de los anillos: La comunidad del anillo</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -490,196 +490,196 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6463zwEACAAJ</t>
+          <t>7abaCsl-b5MC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The return of the king</t>
+          <t>Tolkien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien, Lin Carter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7abaCsl-b5MC</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tolkien</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Lin Carter</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>GAcCAAAACAAJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>Los mundos mágicos de El señor de los anillos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>David Colbert</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GAcCAAAACAAJ</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Los mundos mágicos de El señor de los anillos</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>David Colbert</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gdvd0AEACAAJ</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -694,46 +694,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>PC8AAAAACAAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Jude Fisher</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,39 +760,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PC8AAAAACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Jude Fisher</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,47 +798,51 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>U7sA0AEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El Señor de los Anillos III</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2010-04-28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>John Ronald Reuel Tolkien</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>UfYGAAAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Kurt D. Bruner, Jim Ware</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UfYGAAAACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -879,24 +879,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kurt D. Bruner, Jim Ware</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -918,211 +918,211 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZcAlEAAAQBAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Illustrated</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-10-19</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>eVQGEQAAQBAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Worm Ouroboros</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"The Worm Ouroboros" by Eric Rücker Eddison is a classic fantasy novel that transports readers to the enchanting world of Mercury, where two rival kingdoms, Witchland and Demonland, engage in a timeless struggle for power and supremacy. Set against a backdrop of epic battles, intricate political intrigues, and mythical creatures, the novel follows the adventures of heroes and villains alike as they navigate a landscape fraught with magic and danger. Eddison's rich prose and vivid imagination create a captivating tale that explores themes of honor, loyalty, and the eternal conflict between good and evil. A timeless masterpiece of fantasy literature, "The Worm Ouroboros" continues to enchant readers with its immersive world-building and compelling storytelling.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Eric Rücker Eddison</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>gHzeCYjKGBsC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El señor de los anillos y la filosofía</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2010-05-20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Gregory Bassham, Eric Bronson</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gHzeCYjKGBsC</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El señor de los anillos y la filosofía</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2010-05-20</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gregory Bassham, Eric Bronson</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,44 +1161,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1215,27 +1215,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>sA3CAAAACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Senor De Los Anillos Iii</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004-06-30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -490,196 +490,196 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7abaCsl-b5MC</t>
+          <t>6463zwEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tolkien</t>
+          <t>The return of the king</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Lin Carter</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>7abaCsl-b5MC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>Tolkien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J. R. R. Tolkien, Lin Carter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GAcCAAAACAAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Los mundos mágicos de El señor de los anillos</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>David Colbert</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>FlGcUAnpMmIC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>Hobbit's Travels</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2002-01-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>Sam Gamgee</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>GAcCAAAACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>Los mundos mágicos de El señor de los anillos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>David Colbert</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -694,46 +694,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PC8AAAAACAAJ</t>
+          <t>LvsQ34A1fOMC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
+          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jude Fisher</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>Ndgf0AEACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,35 +760,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>PC8AAAAACAAJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Jude Fisher</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>QtSEvgEACAAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -798,51 +802,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U7sA0AEACAAJ</t>
+          <t>RYr8sgEACAAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos III</t>
+          <t>Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2010-04-28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>John Ronald Reuel Tolkien</t>
-        </is>
-      </c>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UfYGAAAACAAJ</t>
+          <t>T8P3AAAACAAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Tolkien, el Señor de Los Anillos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kurt D. Bruner, Jim Ware</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>UfYGAAAACAAJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -879,24 +879,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Kurt D. Bruner, Jim Ware</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>WmdWtQAACAAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -918,61 +918,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>ZVwX0QEACAAJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>ayczzwEACAAJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -987,142 +987,142 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>John Ronald Ruelen Tolkien</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>cURzPgAACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eVQGEQAAQBAJ</t>
+          <t>e1ZJzwEACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Worm Ouroboros</t>
+          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"The Worm Ouroboros" by Eric Rücker Eddison is a classic fantasy novel that transports readers to the enchanting world of Mercury, where two rival kingdoms, Witchland and Demonland, engage in a timeless struggle for power and supremacy. Set against a backdrop of epic battles, intricate political intrigues, and mythical creatures, the novel follows the adventures of heroes and villains alike as they navigate a landscape fraught with magic and danger. Eddison's rich prose and vivid imagination create a captivating tale that explores themes of honor, loyalty, and the eternal conflict between good and evil. A timeless masterpiece of fantasy literature, "The Worm Ouroboros" continues to enchant readers with its immersive world-building and compelling storytelling.</t>
+          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eric Rücker Eddison</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gHzeCYjKGBsC</t>
+          <t>eVQGEQAAQBAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El señor de los anillos y la filosofía</t>
+          <t>The Worm Ouroboros</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
+          <t>"The Worm Ouroboros" by Eric Rücker Eddison is a classic fantasy novel that transports readers to the enchanting world of Mercury, where two rival kingdoms, Witchland and Demonland, engage in a timeless struggle for power and supremacy. Set against a backdrop of epic battles, intricate political intrigues, and mythical creatures, the novel follows the adventures of heroes and villains alike as they navigate a landscape fraught with magic and danger. Eddison's rich prose and vivid imagination create a captivating tale that explores themes of honor, loyalty, and the eternal conflict between good and evil. A timeless masterpiece of fantasy literature, "The Worm Ouroboros" continues to enchant readers with its immersive world-building and compelling storytelling.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2010-05-20</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gregory Bassham, Eric Bronson</t>
+          <t>Eric Rücker Eddison</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>gHzeCYjKGBsC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>El señor de los anillos y la filosofía</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2010-05-20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Gregory Bassham, Eric Bronson</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1134,22 +1134,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1161,44 +1161,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>neSkMQEACAAJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El Señor de Los Anillos 1.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2012-11-13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>o5WfPwAACAAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>El Señor de los anillos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1215,27 +1215,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sA3CAAAACAAJ</t>
+          <t>q0JyPwAACAAJ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Senor De Los Anillos Iii</t>
+          <t>El Señor de Los Anillos, I</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2004-06-30</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/export_books.xlsx
+++ b/src/bigdata/static/xlsx/export_books.xlsx
@@ -463,228 +463,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5XWXuQAACAAJ</t>
+          <t>-Q7y6beGZHAC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Estudio del sector editorial de los juegos de rol en España :historia, tipología, perfil de lector, del autor, del traductor y del editor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2009-06-18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Alan Lee</t>
+          <t>Héctor Sevillano Pareja</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6463zwEACAAJ</t>
+          <t>31EczgEACAAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The return of the king</t>
+          <t>$25 PlayStation Store Gift Card [Digital Code]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Kindly don't look past this. This Saturday, for the first run through as of late, we submissively request that you safeguard Wikipedia's freedom. 98% of our perusers don't give; they look the alternate way.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Charlie Vigil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7abaCsl-b5MC</t>
+          <t>5XWXuQAACAAJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tolkien</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pocos escritores vivos han conseguido atraer tanta atencion e interes, despertar tanta pasion y entusiasmo, suscitar tanta controversia y adulacion como J.R.R Tolkien. Curiosamente, nadie ha explorado los origenes de la obra cumbre de Tolkien, El Senor de los Anillos, ni ha intentado relacionarla con la larga saga de historias epicas en las que se inspira y de las que es, a la vez, ejemplo.El origen de El Senor de los Anillos es un ameno recorrido por las sagas heroicas, desde los mitos griegos hasta las mitologias nordicas, y los grandes relatos que, a traves del tiempo, se han convertido en la fuente e inspiracion de uno de los mayores narradores del siglo XX: J.R.R. Tolkien.El libro de Lin Carter constituye una lectura absorbente para los millones de seguidores de El Senor de los anillos y ofrece una fascinante introduccion para quienes deseen aproximarse por primera vez al universo magico de Tolkien.</t>
+          <t>Cuatro volúmenes en uno.Incluye los mapas y apéndices originales de J.R.R. Tolkien, y un índice de canciones, nombres de personajes, lugares y cosas. 50 ilustraciones en color de Alan Lee.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien, Lin Carter</t>
+          <t>Alan Lee, J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DYmUGGwZ8_oC</t>
+          <t>6463zwEACAAJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
+          <t>The return of the king</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FlGcUAnpMmIC</t>
+          <t>70jL1nnXg3wC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hobbit's Travels</t>
+          <t>Daniel in the Lions' Den</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2002-01-04</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sam Gamgee</t>
+          <t>Ronne Randall</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GAcCAAAACAAJ</t>
+          <t>BABWAQAACAAJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Los mundos mágicos de El señor de los anillos</t>
+          <t>The Lord of the Rings</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>For over fifty years, J.R.R. Tolkien's peerless fantasy has accumulated worldwide acclaim as the greatest adventure tale ever written. No other writer has created a world as distinct as Middle-earth, complete with its own geography, history, languages, and legends. And no one has created characters as endearing as Tolkien's large-hearted, hairy-footed hobbits. Tolkien's The Lord of the Rings continues to seize the imaginations of readers of all ages, and this new three-volume paperback edition is designed to appeal to the youngest of them.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>David Colbert</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IOyjMQEACAAJ</t>
+          <t>DYmUGGwZ8_oC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Power of the Ring</t>
+          <t>El Señor de los Anillos no 01/03 La Comunidad del Anillo (edición revisada)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
+          <t>Primera entrega de la trilogía. «Este libro es como un relámpago en un cielo claro. Decir que la novela heroica, espléndida, elocuente y desinhibida, ha retornado de pronto en una época de un antirromanticismo casi patológico, sería inadecuado. Para quienes vivimos en esa extraña época, el retorno —y el alivio que nos trae— es sin duda lo más importante. Pero para la historia misma de la novela —una historia que se remonta a la Odisea y a antes de la Odisea— no es un retorno, sino un paso adelante o una revolución: la conquista de un territorio nuevo.» —C.S. Lewis, Time &amp; Tide, 1954 «La obra de Tolkien, difundida en millones de ejemplares, traducida a docenas de lenguas, inspiradora de slogans pintados en las paredes de Nueva York y de Buenos Aires... una coherente mitología de una autenticidad universal creada en pleno siglo veinte.» —George Steiner, Le Monde, 1973</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stratford Caldecott</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JUdOAAAACAAJ</t>
+          <t>FlGcUAnpMmIC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Lord of the Rings Sketchbook</t>
+          <t>Hobbit's Travels</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
+          <t>Printed on deluxe recycled parchment paper, this journal celebrating J. R. R. Tolkien's classic tales makes a lovely gift, and is just as nice to keep! With magical two-color illustrations throughout (drawings made by Frodo Baggins's devoted companion, Sam Gamgee, on their travels throughout Middle-earth), it provides ample space for recording personal thoughts, reflections on Tolkien's masterpiece, or fantasies of your own creation.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002-01-04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alan Lee</t>
+          <t>Sam Gamgee</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LCZvVRqH-m8C</t>
+          <t>GAcCAAAACAAJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Los mundos mágicos de El señor de los anillos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,219 +694,223 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1999-05</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Terry Donaldson</t>
+          <t>David Colbert</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LvsQ34A1fOMC</t>
+          <t>IOyjMQEACAAJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos no 03/03 El Retorno del Rey (edición revisada)</t>
+          <t>The Power of the Ring</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>La tercera entrega de la trilogía El Señor de los Anillos. Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. «Un final triunfante... un gran trabajo, tanto en la concepción como en la ejecución.» —Daily Telegraph «Un trabajo extraordinariamente imaginativo, parte saga, parte alegoría, y emocionante en su totalidad.» —The Times</t>
+          <t>Digging deep into J. R. R. Tolkien's spiritual biography--his religious scholarship and his love of both Christian and pagan myth--Stratford Caldecott offers a critical study of how the acclaimed author effectively created a vivid Middle Earth using the familiar rites and ceremonies of human history. And while readers and moviegoers alike may appreciate the fantasy world of The Hobbit and the Lord of the Rings trilogy, few know that in life, Tolkien was a devout Roman Catholic and that the characters, the events, and the general morality of each novel are informed by the dogmas of his faith. Revised and updated, this acclaimed study of Tolkien's achievement--previously released as Secret Fire in the UK--includes commentary on Peter Jackson's film adaptations and explores many of the fascinating stories and letters published after Tolkien's death.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Stratford Caldecott</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ndgf0AEACAAJ</t>
+          <t>JUdOAAAACAAJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Lord of the Rings Sketchbook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>"In The Lord of the Rings Sketchbook Alan Lee reveals in pictures and in words how he created the watercolor paintings for the special centenary edition of The Lord of the Rings. These images would prove so powerful and evocative that they would eventually define the look of Peter Jackson's movie trilogy and earn him a coveted Academy Award." "The book is filled with more than 150 of his sketches and early conceptual pieces showing how the project progressed from idea to finished art. It also contains a selection of full-page paintings reproduced in full color, together with numerous examples of previously unseen conceptual art produced for the films and many new works drawn specially for this book." "The Lord of the Rings Sketchbook provides an insight into the imagination of the man who painted Tolkien's vision, first on the page and then in three dimensions on the movie screen. It will also be of interest to many of the thousands of people who have bought the illustrated Lord of the Rings as well as to budding artists who want to unlock the secrets of book illustration."--BOOK JACKET.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Alan Lee</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PC8AAAAACAAJ</t>
+          <t>LCZvVRqH-m8C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>El señor de los anillos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ediciones Minotauro se complace en presentar la publicacion oficial y autorizada de La Comunidad del Anillo. Clbum de la pelicula, coincidiendo con el estreno de la primera parte de la trilogia epica de Peter Jackson.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1999-05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jude Fisher</t>
+          <t>Terry Donaldson</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QtSEvgEACAAJ</t>
+          <t>MlwaEQAAQBAJ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Del blockbuster al autorretrato</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>En este volumen, Ricardo Bedoya ofrece una visión panorámica de ciertos motivos, tendencias estilísticas y tratamientos rastreables en el cine internacional desde el inicio del siglo XXI. El volumen recoge apuntes sobre centenares de filmes, sopesados desde la perspectiva de un cinéfilo que no reconoce placeres culposos ni jerarquías entre las películas consideradas de arte y ensayo y aquellas que no abrigan tales pretensiones. El volumen se organiza a partir de algunas de las líneas recurrentes en el cine producido desde el año 2000. Comienza con una mirada a los títulos finales o póstumos de cineastas que cerraron sus carreras a inicios del siglo y sigue con un repaso por las distintas modalidades narrativas del cine de no ficción. El repaso continúa con una revisión de los diálogos que se establecen con los géneros cinematográficos, desde el wéstern hasta el terror, siempre vigentes, pero releídos a la luz de las sensibilidades contemporáneas, y presta atención también a las franquicias que abundan en secuelas, precuelas, reboots y spin offs. Otras líneas de aproximación incluyen los modos de imaginar cuerpos y mentes en el nuevo siglo, así como las miradas a la historia y a los conflictos de la actualidad o a la construcción de identidades e intimidades de individuos y grupos, entre otras tendencias del cine del nuevo siglo. Un libro imprescindible para quien quiera orientarse en la diversidad y riqueza de la cinematografía contemporánea.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Ricardo Bedoya</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RYr8sgEACAAJ</t>
+          <t>RTDeDwAAQBAJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fellowship of the Ring</t>
+          <t>Handbook of Research on Transmedia Storytelling, Audience Engagement, and Business Strategies</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>As media evolves with technological improvement, communication changes alongside it. In particular, storytelling and narrative structure have adapted to the new digital landscape, allowing creators to weave immersive and enticing experiences that captivate viewers. These experiences have great potential in marketing and advertising, but the medium’s methods are so young that their potential and effectiveness is not yet fully understood. Handbook of Research on Transmedia Storytelling, Audience Engagement, and Business Strategies is a collection of innovative research that explores transmedia storytelling and digital marketing strategies in relation to audience engagement. Highlighting a wide range of topics including promotion strategies, business models, and prosumers and influencers, this book is ideally designed for digital creators, advertisers, marketers, consumer analysts, media professionals, entrepreneurs, managers, executives, researchers, academicians, and students.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hernández-Santaolalla, Víctor, Barrientos-Bueno, Mónica</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T8P3AAAACAAJ</t>
+          <t>SxZbEAAAQBAJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tolkien, el Señor de Los Anillos</t>
+          <t>1950 || 2005. Cinco decenios y medio de literatura universal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Este libro no es un filtrado exhaustivo o en malla fina de la producción literaria del período que enuncia el título en el umbral. El autor ha intentado reunir sesenta y dos obras representativas del pensamiento, la expresión y la emotividad del lapso enunciado, el de la Guerra Fría, que es también el de numerosas piruetas bélicas y terrores nucleares para las poblaciones del llamado tercer mundo. Éste era y, en gran medida sigue siendo, lo que se disputan con modales macarras los mundos primero y segundo. Vale decir, la preeminencia política, la hegemonía planetaria. Se trata de sesenta y dos autores vindicativos, artistas comprometidos en la defensa de los valores fundamentales de la humanidad, que han conseguido conmover al público, y en algunos casos producir profundos cambios e incluso revoluciones sociales en sus hasta entonces desgraciadas naciones gobernadas por déspotas.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2022-01-22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Daniel Alcoba</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UfYGAAAACAAJ</t>
+          <t>W1F6Nu3gxEsC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Fantasía de aventuras</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Imaginar un relato de aventura y fantasía es un atractivo reto para guionistas y escritores de novelas. En estos géneros, a las dificultades propias de toda ficción se añaden otros problemas creativos, que apenas se contemplan en los manuales de guión o de técnicas novelísticas. Fantasía de aventuras aborda estas cuestiones desde un plano académico, y al mismo tiempo aporta las claves creativas empleadas por profesionales en este tipo de relatos, cada vez más demandados por espectadores y lectores, pero también por editoriales y productoras. Antonio Sánchez-Escalonilla, autor de Estrategias de guión cinematográfico, estudia las técnicas utilizadas por clásicos como Barrie, Roald Dahl, J.K. Rowling, Tolkien y C.S. Lewis, y analiza en profundidad las técnicas de cuatro directores que han cultivado con éxito el género de fantasía de aventuras: Tim Burton, George Lucas, M. Night Shyamalan y Steven Spielberg. Dirigido a estudiantes y profesionales, Fantasía de aventuras ofrece los recursos dramáticos imprescindibles en este tipo de creaciones literarias y cinematográficas.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2002-02</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kurt D. Bruner, Jim Ware</t>
+          <t>Antonio Sánchez-Escalonilla</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WmdWtQAACAAJ</t>
+          <t>ZcAlEAAAQBAJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>The Lord of the Rings Illustrated</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>A sumptuous slipcased edition of Tolkien's classic epic tale of adventure, fully illustrated in color by the author himself. This deluxe volume is quarterbound in leather and includes many special features unique to this edition. Since it was first published in 1954, The Lord of the Rings has been a book people have treasured. Steeped in unrivalled magic and otherworldliness, its sweeping fantasy and epic adventure has touched the hearts of young and old alike. Over 100 million copies of its many editions have been sold around the world, and occasional collectors' editions become prized and valuable items of publishing. This one-volume deluxe slipcased edition contains the complete text, fully corrected and reset, which is printed in red and black, and features thirty color illustrations, maps, and sketches drawn by Tolkien himself as he composed this epic work. These include the pages from the Book of Mazarbul, marvelous facsimiles created by Tolkien to accompany the famous "Bridge of Khazad-dum" chapter. Also appearing are two poster-size, fold-out maps revealing all the detail of Middle-earth. This very special deluxe edition is quarterbound in cloth and red leather, with raised ribs on the spine and stamped in two foils. The pages are edged in gold and contained within are special features unique to this edition.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2021-10-19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -918,93 +922,93 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZVwX0QEACAAJ</t>
+          <t>aWZzLPhY4o0C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El Señor de los Anillos</t>
+          <t>The Fellowship Of The Ring</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2012-02-15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>J.R.R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aWZzLPhY4o0C</t>
+          <t>by0dzzQ6m8sC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Fellowship Of The Ring</t>
+          <t>J.R.R. Tolkien Encyclopedia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Begin your journey into Middle-earth... The inspiration for the upcoming original series on Prime Video, The Lord of the Rings: The Rings of Power. The Fellowship of the Ring is the first part of J.R.R. Tolkien’s epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. Sauron, the Dark Lord, has gathered to him all the Rings of Power—the means by which he intends to rule Middle-earth. All he lacks in his plans for dominion is the One Ring—the ring that rules them all—which has fallen into the hands of the hobbit, Bilbo Baggins. In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+          <t>This book presents the most recent scholarship on J.R.R. Tolkien, but also introduces and explores the author and scholar's life and work within their historical and cultural contexts. It examines Tolkien's fiction and his sources of influence along with his artistic and academic achievements, including his translations of medieval texts.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2012-02-15</t>
+          <t>2006-11-06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t>Michael D.C. Drout</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ayczzwEACAAJ</t>
+          <t>f5-uKpcOMhMC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>Avalon Revisited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>This book contains a collection of essays dealing with different re-workings of the Arthurian myth. The papers trace the Arthurian myth, inquiring into its origins in Ancient Rome, and pointing out influences from the Dark Ages up to the present. Reference is made to oral tradition, visual narrative and iconic messages in manuscript illumination, the myth in medieval chivalry and the decay of the latter. Parallelisms are drawn with Christian figures and beliefs, with Irish literature and Gaelic mythology, and with novels and films. The methodological approaches and points of view show great diversity: from an inquiry into the historical sources of the myth, to comparative literature, inter-textuality, feminist criticism, analysis of cinema up to a refreshing practical classroom exercise.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>John Ronald Ruelen Tolkien</t>
+          <t>María José Álvarez Faedo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cURzPgAACAAJ</t>
+          <t>jZgjyAEACAAJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>The Return of the King</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1014,7 +1018,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1026,243 +1030,243 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>e1ZJzwEACAAJ</t>
+          <t>ld5GswEACAAJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 3. El Retorno del Rey (TV Tie-In). the Lord of the Rings 3. the Return of the King (TV Tie-In) (Spanish Edition)</t>
+          <t>The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>La última parte del viaje de Frodo y Sam Los ejércitos del Señor Oscuro van extendiendo cada vez más su maléfica sombra por la Tierra Media. Hombres, elfos y enanos unen sus fuerzas para presentar batalla a Sauron y sus huestes. Ajenos a estos preparativos, Frodo y Sam siguen adentrándose en el país de Mordor en su heroico viaje para destruir el Anillo de Poder en las Grietas del Destino. ENGLISH DESCRIPTION The Return of the King is the third part of J.R.R. Tolkien's epic adventure The Lord of the Rings. One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them. The Dark Lord has risen, and as he unleashes hordes of Orcs to conquer all Middle-earth, Frodo and Sam struggle deep into his realm in Mordor. To defeat Sauron, the One Ring must be destroyed in the fires of Mount Doom. But the way is impossibly hard, and Frodo is weakening. The Ring corrupts all who bear it and Frodo's time is running out. Will Sam and Frodo succeed, or will the Dark Lord rule Middle-earth once more?</t>
+          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>John Ronald Reuel Tolkien</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eVQGEQAAQBAJ</t>
+          <t>nSYeAQAAIAAJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Worm Ouroboros</t>
+          <t>Acerca de El señor de los anillos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"The Worm Ouroboros" by Eric Rücker Eddison is a classic fantasy novel that transports readers to the enchanting world of Mercury, where two rival kingdoms, Witchland and Demonland, engage in a timeless struggle for power and supremacy. Set against a backdrop of epic battles, intricate political intrigues, and mythical creatures, the novel follows the adventures of heroes and villains alike as they navigate a landscape fraught with magic and danger. Eddison's rich prose and vivid imagination create a captivating tale that explores themes of honor, loyalty, and the eternal conflict between good and evil. A timeless masterpiece of fantasy literature, "The Worm Ouroboros" continues to enchant readers with its immersive world-building and compelling storytelling.</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eric Rücker Eddison</t>
+          <t>Pablo Soler Frost</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gHzeCYjKGBsC</t>
+          <t>q-2hXghg6kkC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El señor de los anillos y la filosofía</t>
+          <t>El Secreto de los Films Que Triunfaron</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>¿Nos resultaría aburrida la vida eterna en caso de que pudiéramos alcanzarla? ¿Qué virtudes son necesarias para que el poder no corrompa a quien lo tiene? ¿Se revelará la naturaleza contra la tecnología? Si un ente cae en el bosque y nadie lo oye, ¿hace ruido? Gregory Bassham y Eric Bronson dan respuesta a éstas y otras cuestiones planteadas en El Señor de los Anillos, la epopeya de J. R. R. Tolkien que, desde su publicación, ha vendido más de cincuenta millones de ejemplares y cuya riqueza y complejidad ha tejido una red cada vez más amplia de seguidores. Si la intención de Tolkien era crear «una historia que mantendría la atención del lector [...] y que a veces quizá lo excitaría o lo conmovería profundamente», consiguió también trasladar a su obra algunas de sus propias inquietudes filosóficas: la lucha del bien contra el mal, la oposición entre destino y libre albedrío, la búsqueda de la felicidad o la vida después de la muerte. Esta colección de ensayos además de ofrecernos una comprensión más fiel de las cuestiones que inspiran y nutren El Señor de los Anillos, supone una amena introducción a la filosofía, la religión y la mitología y una excelente carta de presentación a la cosmovisión de pensadores como Platón, Aristóteles o Nietzsche. Porque, como dice el mago filósofo Gandalf: "Si has estado estos días con las orejas tapadas y la mente dormida, ¡es hora de que despiertes!</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2010-05-20</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gregory Bassham, Eric Bronson</t>
+          <t>Peter Bart</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jZgjyAEACAAJ</t>
+          <t>q_P7oMO3lC4C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Return of the King</t>
+          <t>Trilogía El Señor de los Anillos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La trilogía más esperada Concebida en un primer momento como una continuación de El Hobbit, acabó por convertirse en una historia independiente por derecho propio de mucho más alcance y extensión. En 1999 la trilogía de El Señor de los Anillos fue elegida como «Libro del Milenio» por los participantes de una encuesta de Amazon.com. En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Consciente de la importancia de su misión, Frodo abandona la Comarca e inicia el camino hacia Mordor con la compañía inesperada de Sam, Pippin y Merry. Pero sólo con la ayuda de Aragorn conseguirán vencer a los Jinetes Negros y alcanzar el refugio de la Casa de Elrond en Rivendel.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2012-12-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>J. R. R. Tolkien</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ld5GswEACAAJ</t>
+          <t>u1SlueaOWQYC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Fellowship of the Ring</t>
+          <t>Crear el hábito de leer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Frodo the hobbit and a band of warriors from the different kingdoms set out to destroy the Ring of Power before the evil Sauron grasps control.</t>
+          <t>Materiales de apoyo para crear el hábito de leer en el alumnado de la Educación Secundaria Obligatoria, con la novedad de abordar esta tarea desde el relato heroico de obras contemporáneas, tan atractivas para adolescentes y jóvenes como El Señor de los Anillos, la serie de Harry Potter y La historia interminable. Desde ellas, los jóvenes lectores pueden enlazar con otros relatos heroicos clásicos: Mío Cid, Lazarillo, Don Quijote, etc. Se analiza el origen y desarrollo de este género literario y se ofrecen criterios metodológicos, guías para la lectura y Unidades Didácticas sobre los relatos, como base para una educación en valores.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2005-05-17</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>María del Mar Gallardo Samper, Isabel Romero Tabares</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>neSkMQEACAAJ</t>
+          <t>wBg6fdFA8f8C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos 1.</t>
+          <t>El viaje de Bilbo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La Compania se ha disuelto y sus integrantes emprenden caminos separados. Frodo y Sam continuan solos su viaje a lo largo del rio Anduin, perseguidos por la sombra misteriosa de un ser extrano que tambien ambiciona la posesion del Anillo. Mientras, hombres, elfos y enanos se preparan para la batalla final contra las fuerzas del Senor del Mal.</t>
+          <t>El Hobbit es la primera obra de Tolkien en la que explora el mundo mitológico que le haría famoso. El estilo directo y lineal, con alusiones (que el autor deploró más tarde) a un público infantil, no impide la poderosa irrupción de los grandes temas tolkienianos (el poder, la codicia, la guerra, la muerte, el paso del tiempo...) que reaparecerán en una dimensión a menudo obviamente épica en El Señor de los Anillos. Joseph Pearce, reconocido especialista en la obra de Tolkien, investiga en este libro los significados profundos de la aventura de Bilbo, que en una lectura superficial pueden pasar inadvertidos. Además de una fascinante historia de audacia y heroísmo, se trata en el fondo de un viaje de crecimiento interior, un aprendizaje del valor del sacrificio por los demás y un descubrimiento de la acción de la providencia en la vida de cada hombre (o hobbit, enano o elfo...). Para llegar a la verdadera intención del autor, es necesario trascender el significado literal de la obra y llegar a su nivel más profundo, pues solo así puede disfrutarse de toda su fuerza creativa.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2012-11-13</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>John Ronald Reuel Tolkien</t>
+          <t>Joseph Pearce</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>o5WfPwAACAAJ</t>
+          <t>xjo0EAAAQBAJ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El Señor de los anillos</t>
+          <t>El camino continúa Un viaje de Cristina a través de El Señor de los Anillos.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>La historia de Tolkien, El Señor de los Anillos, toca el alma de manera profunda. ¿Por qué? ¿Qué hace que los héroes sean tan atractivos? ¿Podemos llegar a ser como ellos? El poder de ser fuerte y valiente no se limita a la Tierra Media. A nosotros se nos han dado las mismas herramientas y los mismos dones que a ellos si los reconocemos. Los anillos de poder de nuestra sociedad nos tientan a nosotros y también a nuestros hijos. Seríamos sabios si despertáramos a aquello que pone a prueba nuestras almas. Mira este clásico desde una perspectiva cristiana, y puede que traigas la Tierra Media un poco más cerca de casa.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2021-05-16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>A. K. Frailey</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>q0JyPwAACAAJ</t>
+          <t>yK0Qi0R9U-IC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El Señor de Los Anillos, I</t>
+          <t>Impacto económico de las industrias culturales en Colombia</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>En la adormecida e idílica Comarca, un joven hobbit recibe un encargo: custodiar el Anillo Único y emprender el viaje para su destrucción en las Grietas del Destino. Acompañado por magos, hombres, elfos y enanos, atravesará la Tierra Media y se internará en las sombras de Mordor, perseguido siempre por las huestes de Sauron, el Señor Oscuro, dispuesto a recuperar su creación para establecer el dominio definitivo del Mal.</t>
+          <t>Economía y cultura - El sector cultural en tres escenarios - Sector editorial - Sector fonográfico - Cine - Sector televisión - La radio - Publicaciones periódicas - Recomendaciones de política sobre las industrias culturales en Colombia.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Colombia. Ministerio de Cultura</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>z5jCtAEACAAJ</t>
+          <t>zMK3GOMOpQ4C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>El señor de los anillos</t>
+          <t>PHP y MySQL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Este libro pretende introducirnos en el conocimiento de una tecnología web de uso sencillo y que está al alcance de cualquier tipo de empresas, sin importar su tamaño, mediante el uso conjunto del lenguaje PHP y gestor de base de datos MySQL de forma conjunta. Y todo esto porque para su uso no es necesario contar con personal con profundos conocimientos técnicos. La intención de los autores ha sido escribir un libro de fácil lectura e interpretación para personas con conocimientos muy básicos de lenguajes de programación y con inquietudes por el desarrollo de sitios web. INDICE: Internet y la programación de ordenadores. Open Source y Software libre. Creación de páginas web mediante el lenguaje HTML. Introducción a PHP. PHP y los formularios de HTML. Sentencias de control. Definición de funciones. Arrays. Funciones predefinidas. Programación orientada a objetos. Cookies. Base de datos relacionales y el lenguaje SQL. El sistema gestor de base de datos MySQL. Funciones Open Source basadas en PHP y MySQL.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2005-07-06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>J. R. R. Tolkien</t>
+          <t>Ángel Cobo</t>
         </is>
       </c>
     </row>
